--- a/Weather_Trends.xlsx
+++ b/Weather_Trends.xlsx
@@ -123,11 +123,11 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3493,6 +3493,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3559,6 +3614,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Degrees </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>°C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t> </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4567,7 +4687,7 @@
   <dimension ref="A1:L275"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4585,18 +4705,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4661,7 +4781,7 @@
       <c r="K4" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <f>_xlfn.RRI(A273-A14+1,C14,C273)</f>
         <v>7.5347335291664486E-4</v>
       </c>
@@ -4682,7 +4802,7 @@
       <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <f>_xlfn.RRI(E273-E14+1,I14,I273)</f>
         <v>4.7696923510387457E-4</v>
       </c>
@@ -4711,7 +4831,7 @@
       <c r="K7" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="3">
         <f>_xlfn.STDEV.P(B10:B275)</f>
         <v>0.58364722555148463</v>
       </c>
@@ -4729,7 +4849,7 @@
       <c r="K8" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <f>_xlfn.STDEV.P(H10:H275)</f>
         <v>0.6995060732806212</v>
       </c>
